--- a/sem6/HURT/lab4/Book1.xlsx
+++ b/sem6/HURT/lab4/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliks\Documents\GitHub\PWR\sem6\HURT\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E32778-3DA0-4834-A241-43BD2405A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A098C2-FEB0-470C-A400-F4514E8552B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{CF844B6A-902C-4601-94FF-1426104F1C9E}"/>
+    <workbookView xWindow="13764" yWindow="828" windowWidth="9180" windowHeight="9960" activeTab="3" xr2:uid="{CF844B6A-902C-4601-94FF-1426104F1C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,11 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="181" r:id="rId6"/>
-    <pivotCache cacheId="324" r:id="rId7"/>
-    <pivotCache cacheId="393" r:id="rId8"/>
-    <pivotCache cacheId="402" r:id="rId9"/>
-    <pivotCache cacheId="441" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="28" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -211,9 +211,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -313,7 +312,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -435,6 +434,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -468,6 +523,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1791-4A15-8B05-BF58F77D8339}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -483,6 +543,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1791-4A15-8B05-BF58F77D8339}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -498,6 +563,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1791-4A15-8B05-BF58F77D8339}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -513,6 +583,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1791-4A15-8B05-BF58F77D8339}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -783,26 +858,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
@@ -822,41 +877,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -878,41 +899,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -934,12 +921,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -961,12 +943,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -988,12 +965,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1015,12 +987,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1042,12 +1009,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1069,12 +1031,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1084,7 +1041,7 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1096,41 +1053,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1140,7 +1063,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1152,41 +1075,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1705,7 +1594,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3227,6 +3116,342 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3285,16 +3510,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.22153763790015721</c:v>
+                  <c:v>0.20806691209713879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31321327467335064</c:v>
+                  <c:v>0.36869100899543583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41392579400173973</c:v>
+                  <c:v>0.42993077236324151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46068909365582961</c:v>
+                  <c:v>0.47302422314656228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3356,16 +3581,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.22758201025786035</c:v>
+                  <c:v>0.20916489052509205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38760242747817991</c:v>
+                  <c:v>0.46286613196260024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42584511131290265</c:v>
+                  <c:v>0.44653183113886247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53931090634416934</c:v>
+                  <c:v>0.52697577685343777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,13 +3652,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.55088035184202011</c:v>
+                  <c:v>0.58276819737776919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29918429784877604</c:v>
+                  <c:v>0.16844285904196393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16022909468538166</c:v>
+                  <c:v>0.12353739649789602</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -7018,6 +7243,43 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7057,84 +7319,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7694,6 +7879,502 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8196,1006 +8877,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9904,86 +9586,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="zawo stepaniuk" refreshedDate="45759.670344791666" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4FA80C49-2F7E-441E-A816-43ABE07D0EAC}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[DIM PRODUCT].[Category Name].[Category Name]" caption="Category Name" numFmtId="0" hierarchy="6" level="1">
-      <sharedItems count="4">
-        <s v="[DIM PRODUCT].[Category Name].&amp;[Accessories]" c="Accessories"/>
-        <s v="[DIM PRODUCT].[Category Name].&amp;[Bikes]" c="Bikes"/>
-        <s v="[DIM PRODUCT].[Category Name].&amp;[Clothing]" c="Clothing"/>
-        <s v="[DIM PRODUCT].[Category Name].&amp;[Components]" c="Components"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Line Total]" caption="Line Total" numFmtId="0" hierarchy="19" level="32767"/>
-    <cacheField name="[DIM SALESPERSON].[Gender].[Gender]" caption="Gender" numFmtId="0" hierarchy="13" level="1">
-      <sharedItems count="3">
-        <s v="[DIM SALESPERSON].[Gender].&amp;[F]" c="F"/>
-        <s v="[DIM SALESPERSON].[Gender].&amp;[M]" c="M"/>
-        <s v="[DIM SALESPERSON].[Gender].[All].UNKNOWNMEMBER" c="Unknown"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="20">
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[City].[All]" allUniqueName="[DIM CUSTOMER].[City].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" allUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Customer ID].[All]" allUniqueName="[DIM CUSTOMER].[Customer ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Group].[All]" allUniqueName="[DIM CUSTOMER].[Group].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Territory Name]" caption="Territory Name" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Territory Name].[All]" allUniqueName="[DIM CUSTOMER].[Territory Name].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Title]" caption="Title" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Title].[All]" allUniqueName="[DIM CUSTOMER].[Title].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Category Name]" caption="Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Category Name].[All]" allUniqueName="[DIM PRODUCT].[Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Color].[All]" allUniqueName="[DIM PRODUCT].[Color].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[List Price]" caption="List Price" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[List Price].[All]" allUniqueName="[DIM PRODUCT].[List Price].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Name].[All]" allUniqueName="[DIM PRODUCT].[Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Product ID].[All]" allUniqueName="[DIM PRODUCT].[Product ID].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Sub Category Name]" caption="Sub Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" allUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" allUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Gender]" caption="Gender" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Gender].[All]" allUniqueName="[DIM SALESPERSON].[Gender].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Group].[All]" allUniqueName="[DIM SALESPERSON].[Group].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Sales Person ID]" caption="Sales Person ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" allUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Title]" caption="Title" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Title].[All]" allUniqueName="[DIM SALESPERSON].[Title].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Unit Price Discount]" caption="Unit Price Discount" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="FACT SALES" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="4">
-    <dimension name="DIM CUSTOMER" uniqueName="[DIM CUSTOMER]" caption="DIM CUSTOMER"/>
-    <dimension name="DIM PRODUCT" uniqueName="[DIM PRODUCT]" caption="DIM PRODUCT"/>
-    <dimension name="DIM SALESPERSON" uniqueName="[DIM SALESPERSON]" caption="DIM SALESPERSON"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="FACT SALES" caption="FACT SALES"/>
-  </measureGroups>
-  <maps count="3">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="zawo stepaniuk" refreshedDate="45759.678182175929" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A5D121F5-649D-41BE-9478-D85261AFF893}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
@@ -10087,7 +9689,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="zawo stepaniuk" refreshedDate="45759.682522337964" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1FB89501-F57C-484B-8399-CE5A1D056F81}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
@@ -10172,7 +9774,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="zawo stepaniuk" refreshedDate="45759.683397106484" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1768F074-E24E-46C2-B183-2D92258D746C}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
@@ -10240,7 +9842,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="zawo stepaniuk" refreshedDate="45759.698690393518" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6897AA55-E65C-4B01-BEED-8D1E9E237DD3}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -10326,8 +9928,88 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="zawo stepaniuk" refreshedDate="45761.577587384258" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4FA80C49-2F7E-441E-A816-43ABE07D0EAC}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[DIM PRODUCT].[Category Name].[Category Name]" caption="Category Name" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="4">
+        <s v="[DIM PRODUCT].[Category Name].&amp;[Accessories]" c="Accessories"/>
+        <s v="[DIM PRODUCT].[Category Name].&amp;[Bikes]" c="Bikes"/>
+        <s v="[DIM PRODUCT].[Category Name].&amp;[Clothing]" c="Clothing"/>
+        <s v="[DIM PRODUCT].[Category Name].&amp;[Components]" c="Components"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[DIM SALESPERSON].[Gender].[Gender]" caption="Gender" numFmtId="0" hierarchy="13" level="1">
+      <sharedItems count="3">
+        <s v="[DIM SALESPERSON].[Gender].&amp;[F]" c="F"/>
+        <s v="[DIM SALESPERSON].[Gender].&amp;[M]" c="M"/>
+        <s v="[DIM SALESPERSON].[Gender].[All].UNKNOWNMEMBER" c="Unknown"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Order Qty]" caption="Order Qty" numFmtId="0" hierarchy="17" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="20">
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[City].[All]" allUniqueName="[DIM CUSTOMER].[City].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" allUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Customer ID].[All]" allUniqueName="[DIM CUSTOMER].[Customer ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Group].[All]" allUniqueName="[DIM CUSTOMER].[Group].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Territory Name]" caption="Territory Name" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Territory Name].[All]" allUniqueName="[DIM CUSTOMER].[Territory Name].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Title]" caption="Title" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Title].[All]" allUniqueName="[DIM CUSTOMER].[Title].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Category Name]" caption="Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Category Name].[All]" allUniqueName="[DIM PRODUCT].[Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Color].[All]" allUniqueName="[DIM PRODUCT].[Color].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[List Price]" caption="List Price" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[List Price].[All]" allUniqueName="[DIM PRODUCT].[List Price].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Name].[All]" allUniqueName="[DIM PRODUCT].[Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Product ID].[All]" allUniqueName="[DIM PRODUCT].[Product ID].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Sub Category Name]" caption="Sub Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" allUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" allUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Gender]" caption="Gender" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Gender].[All]" allUniqueName="[DIM SALESPERSON].[Gender].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Group].[All]" allUniqueName="[DIM SALESPERSON].[Group].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Sales Person ID]" caption="Sales Person ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" allUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Title]" caption="Title" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Title].[All]" allUniqueName="[DIM SALESPERSON].[Title].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="FACT SALES" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Unit Price Discount]" caption="Unit Price Discount" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="4">
+    <dimension name="DIM CUSTOMER" uniqueName="[DIM CUSTOMER]" caption="DIM CUSTOMER"/>
+    <dimension name="DIM PRODUCT" uniqueName="[DIM PRODUCT]" caption="DIM PRODUCT"/>
+    <dimension name="DIM SALESPERSON" uniqueName="[DIM SALESPERSON]" caption="DIM SALESPERSON"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="FACT SALES" caption="FACT SALES"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AACEF16E-A69E-4D27-83B6-651502ED523E}" name="PivotTable1" cacheId="402" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AACEF16E-A69E-4D27-83B6-651502ED523E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -10367,12 +10049,60 @@
   <dataFields count="1">
     <dataField fld="1" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="5">
     <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -10416,7 +10146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F935807A-0351-49DF-B58D-14D18A4D793D}" name="PivotTable2" cacheId="393" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F935807A-0351-49DF-B58D-14D18A4D793D}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -10545,7 +10275,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{259629C2-1CED-4B57-9F07-1F3B9C812574}" name="PivotTable3" cacheId="441" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{259629C2-1CED-4B57-9F07-1F3B9C812574}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
   <location ref="A1:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -10827,7 +10557,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6F8AB4F-AAC0-4096-A697-BC2243AD0C24}" name="PivotTable4" cacheId="181" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6F8AB4F-AAC0-4096-A697-BC2243AD0C24}" name="PivotTable4" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9" fieldListSortAscending="1">
   <location ref="A1:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -10839,7 +10569,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="4">
         <item x="0"/>
@@ -10848,6 +10577,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -10870,7 +10600,7 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="2"/>
+    <field x="1"/>
   </colFields>
   <colItems count="4">
     <i>
@@ -10887,46 +10617,31 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField fld="1" baseField="2" baseItem="0" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField pivotShowAs="percentOfParentCol"/>
-        </ext>
-      </extLst>
-    </dataField>
+    <dataField fld="2" showDataAs="percentOfRow" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -10974,7 +10689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C2045A6-1491-49BB-BF4F-58B60A758B1E}" name="PivotTable5" cacheId="324" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C2045A6-1491-49BB-BF4F-58B60A758B1E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -11719,7 +11434,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -11727,42 +11442,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>9.7943707160567384E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.76978270380634839</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.12646930144378243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5.8042875893248753E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -11776,7 +11491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34FBC3F-A27B-46A9-A341-68AC10C33EFD}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -11821,7 +11536,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s" vm="2">
@@ -11829,7 +11544,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -11843,58 +11558,58 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.44354349802970505</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.38505010443811033</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.31374351929809013</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>8.8928463170656988E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.46390801347018135</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.52284308946692071</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.46752803879963817</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.15104188209206865</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.16341339123498913</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -11921,7 +11636,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -11929,114 +11644,114 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>53148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>19906</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>13143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>20099</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>203473</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>49381</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>19493</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>19843</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>36776</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>18875</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>59105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>18293</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>18293</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>274914</v>
       </c>
     </row>
@@ -12050,29 +11765,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C58BFAB-E6DF-4000-AE48-F6318732CB77}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -12089,87 +11806,87 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.22153763790015721</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.22758201025786035</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.55088035184202011</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="3">
+        <v>0.20806691209713879</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.20916489052509205</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.58276819737776919</v>
+      </c>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.31321327467335064</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.38760242747817991</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.29918429784877604</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="3">
+        <v>0.36869100899543583</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.46286613196260024</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.16844285904196393</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.41392579400173973</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.42584511131290265</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.16022909468538166</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="3">
+        <v>0.42993077236324151</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.44653183113886247</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.12353739649789602</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.46068909365582961</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.53931090634416934</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="3">
+        <v>0.47302422314656228</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.52697577685343777</v>
+      </c>
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.32994158357043873</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.40278809910334679</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.26727031732747714</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="3">
+        <v>0.36752948194708163</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.41277272165113454</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.21969779640178383</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -12250,7 +11967,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s" vm="1">
@@ -12258,7 +11975,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -12272,198 +11989,198 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.16270785619740197</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.16281298425903271</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.22613065326633158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>7.3776018504623939E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>7.3913220781339203E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>8.0402010050251202E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.8619686182800693E-2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2.6486420357230242E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>6.0312151509977256E-2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>6.241334312046326E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.14572864321608028</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.8200373503552395</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.81640975450615771</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.76381909547738691</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.1901675305787478</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.19158306826523122</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.36683417085427128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>8.0270903767537344E-2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>8.2150721800831911E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2.01005025125628E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>8.9098891335325461E-2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>8.9470679389935567E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>3.0150753768844199E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.15111892649518047</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.15214909061251122</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.19095477386934664</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>8.1278584241768662E-2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>7.5238561291901151E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1.00502512562814E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.22810251393667741</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.22581763314574668</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.14572864321608028</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1.7254793447357409E-2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>2.0777261234809559E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1.00502512562814E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1.7254793447357409E-2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>2.0777261234809559E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1.00502512562814E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
     </row>
